--- a/11_集計表.xlsx
+++ b/11_集計表.xlsx
@@ -2,16 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6A7271-BF4A-4688-8D13-AC2AA039C71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1CE165-0AF9-48A9-A837-4553AAB29695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="720" windowWidth="17280" windowHeight="10872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4836" yWindow="72" windowWidth="17280" windowHeight="10872" xr2:uid="{632F0B20-6CFB-4D27-8925-80DAAB752D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -26,12 +34,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>市場調査アンケート</t>
     <rPh sb="0" eb="4">
       <t>シジョウチョウサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査日：</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサビ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -48,49 +63,42 @@
     <rPh sb="11" eb="12">
       <t>ミチ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>回答</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>女性</t>
     <rPh sb="0" eb="2">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>構成比</t>
     <rPh sb="0" eb="3">
       <t>コウセイヒ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>調査日：</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>買い物</t>
@@ -100,35 +108,35 @@
     <rPh sb="2" eb="3">
       <t>モノ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>飲食・グルメ</t>
     <rPh sb="0" eb="2">
       <t>インショク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>旅行</t>
     <rPh sb="0" eb="2">
       <t>リョコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>貯蓄</t>
     <rPh sb="0" eb="2">
       <t>チョチク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ローン・借金返済</t>
     <rPh sb="4" eb="8">
       <t>シャッキンヘンサイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>生活費の補てん</t>
@@ -138,21 +146,21 @@
     <rPh sb="4" eb="5">
       <t>ホ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>投資</t>
     <rPh sb="0" eb="2">
       <t>トウシ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>■調査対象：全国の20歳～59歳の男女</t>
@@ -174,7 +182,7 @@
     <rPh sb="17" eb="19">
       <t>ダンジョ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>簡単家計簿</t>
@@ -184,7 +192,7 @@
     <rPh sb="2" eb="5">
       <t>カケイボ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>今月予算</t>
@@ -194,7 +202,7 @@
     <rPh sb="2" eb="4">
       <t>ヨサン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>支出合計</t>
@@ -204,74 +212,83 @@
     <rPh sb="2" eb="4">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>残金</t>
     <rPh sb="0" eb="2">
       <t>ザンキン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>費目</t>
     <rPh sb="0" eb="2">
       <t>ヒモク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>支出</t>
     <rPh sb="0" eb="2">
       <t>シシュツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>累計</t>
     <rPh sb="0" eb="2">
       <t>ルイケイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メモ</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>交通費</t>
     <rPh sb="0" eb="3">
       <t>コウツウヒ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>衣類</t>
-    <rPh sb="0" eb="2">
-      <t>イルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>美容</t>
-    <rPh sb="0" eb="2">
-      <t>ビヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>お年玉</t>
     <rPh sb="1" eb="3">
       <t>トシダマ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>衣類</t>
+    <rPh sb="0" eb="2">
+      <t>イルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>美容</t>
+    <rPh sb="0" eb="2">
+      <t>ビヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>目標金額</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -282,28 +299,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -319,20 +337,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +369,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -421,21 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -567,113 +582,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+  <cellStyles count="4">
+    <cellStyle name="パーセント 2" xfId="3" xr:uid="{D4CB6A1F-C197-4606-884C-000B847577A8}"/>
+    <cellStyle name="桁区切り 2" xfId="2" xr:uid="{CF91C8DF-4F30-499B-A401-642E4F14C955}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{97F6B28F-FC65-4B3D-A534-A2C723160679}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFCCFF99"/>
-      <color rgb="FF99FF99"/>
-    </mruColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -686,7 +737,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -726,14 +777,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -761,14 +812,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -796,9 +864,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -807,538 +892,562 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42976D99-BC89-4E6A-9FDF-6A021BC311BD}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.8984375" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
         <v>45498</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="15">
         <v>1002</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="15">
         <v>1223</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="15">
         <f>B6+C6</f>
         <v>2225</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f>D6/$D$13</f>
         <v>0.11216413772243787</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="16">
         <v>138</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="16">
         <v>166</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="15">
         <f t="shared" ref="D7:D12" si="0">B7+C7</f>
         <v>304</v>
       </c>
-      <c r="E7" s="9">
-        <f t="shared" ref="E7:E12" si="1">D7/$D$13</f>
+      <c r="E7" s="8">
+        <f>D7/$D$13</f>
         <v>1.532489791803196E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="16">
         <v>1494</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="16">
         <v>1577</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>3071</v>
       </c>
-      <c r="E8" s="9">
-        <f t="shared" si="1"/>
+      <c r="E8" s="8">
+        <f>D8/$D$13</f>
         <v>0.15481171548117154</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="16">
         <v>3571</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="16">
         <v>3746</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>7317</v>
       </c>
-      <c r="E9" s="9">
-        <f t="shared" si="1"/>
+      <c r="E9" s="8">
+        <f t="shared" ref="E7:E13" si="1">D9/$D$13</f>
         <v>0.36885617784947322</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="16">
         <v>1468</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="16">
         <v>1094</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>2562</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f t="shared" si="1"/>
         <v>0.12915259363815093</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="16">
         <v>1812</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="16">
         <v>1927</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>3739</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <f t="shared" si="1"/>
         <v>0.1884861622221102</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="16">
         <v>427</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="16">
         <v>192</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="15">
         <f t="shared" si="0"/>
         <v>619</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <f t="shared" si="1"/>
         <v>3.1204315168624288E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="17">
         <f>SUM(B6:B12)</f>
         <v>9912</v>
       </c>
-      <c r="C13" s="23">
-        <f>SUM(C6:C12)</f>
+      <c r="C13" s="17">
+        <f t="shared" ref="C13:E13" si="2">SUM(C6:C12)</f>
         <v>9925</v>
       </c>
-      <c r="D13" s="23">
-        <f>SUM(D6:D12)</f>
+      <c r="D13" s="17">
+        <f t="shared" si="2"/>
         <v>19837</v>
       </c>
-      <c r="E13" s="10">
-        <f>SUM(E6:E12)</f>
+      <c r="E13" s="28">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>2000000</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="17"/>
+      <c r="E20" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="18">
+        <v>200000</v>
+      </c>
+      <c r="B21" s="21">
+        <f>SUM(C24,C25,C26)</f>
+        <v>58650</v>
+      </c>
+      <c r="C21" s="25">
+        <f>A21-B21</f>
+        <v>141350</v>
+      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="27">
+        <f>A21*0.8</f>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+    <row r="24" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="19">
         <v>45292</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="15">
         <v>35000</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="15">
+        <f>C24</f>
+        <v>35000</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="20">
+        <v>45293</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="16">
+        <v>20000</v>
+      </c>
+      <c r="D25" s="15">
+        <f>D24+C25</f>
+        <v>55000</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="20">
+        <v>45293</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
-        <v>45293</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="22">
-        <v>20000</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="26">
-        <v>45293</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="22">
+      <c r="C26" s="16">
         <v>3650</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="15" t="s">
+      <c r="D26" s="15">
+        <f>D25+C26</f>
+        <v>58650</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="20">
+        <v>45296</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="20">
+        <v>45299</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="20">
+        <v>45299</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="20">
+        <v>45301</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="29">
+        <v>45302</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="30">
+        <v>45304</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="31">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="31">
+        <v>45309</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1348,9 +1457,9 @@
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="B32:E32"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B6:C12">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1358,7 +1467,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0D5E4790-DBA8-4F41-B4D7-CAA97BB8EE92}</x14:id>
+          <x14:id>{F3C7AA81-EF42-46E2-B7EB-A5CFE3D50503}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1368,13 +1477,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0D5E4790-DBA8-4F41-B4D7-CAA97BB8EE92}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+          <x14:cfRule type="dataBar" id="{F3C7AA81-EF42-46E2-B7EB-A5CFE3D50503}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
